--- a/Module7/Assignment/TB_Cases.xlsx
+++ b/Module7/Assignment/TB_Cases.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module7/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A324E3F-0C33-5049-B887-E4CCC735DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA3F78-0FB2-FA4F-8074-D5C42A48C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="920" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{85DF16C1-851C-2B47-8D17-EE760134DD3A}"/>
+    <workbookView xWindow="1740" yWindow="1020" windowWidth="28040" windowHeight="12160" activeTab="2" xr2:uid="{85DF16C1-851C-2B47-8D17-EE760134DD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="HIV-" sheetId="2" r:id="rId1"/>
     <sheet name="HIV+" sheetId="1" r:id="rId2"/>
     <sheet name="HIV-+HIV+" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>TB+, Extra.TB+</t>
   </si>
@@ -58,13 +58,10 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>TB+, Latent TB</t>
+    <t>TB+</t>
   </si>
   <si>
-    <t>NonTb + Healthy</t>
-  </si>
-  <si>
-    <t>TB+</t>
+    <t>Latent TB + NonTb + Healthy</t>
   </si>
 </sst>
 </file>
@@ -473,14 +470,14 @@
   <dimension ref="G9:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:10" x14ac:dyDescent="0.2">
@@ -510,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I12" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -522,10 +519,12 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>58</v>
+        <f xml:space="preserve"> 54 - H12</f>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
-        <v>100</v>
+        <f xml:space="preserve"> (62+64+42) - I12</f>
+        <v>154</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -533,11 +532,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1">
         <f>SUM(H12:H13)</f>
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1">
         <f>SUM(I12:I13)</f>
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="J14" s="1">
         <f>SUM(H14:I14)</f>
@@ -556,7 +555,7 @@
       </c>
       <c r="H16" s="1">
         <f>H12/(H12+H13)</f>
-        <v>0.5</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -567,7 +566,7 @@
       </c>
       <c r="H17" s="1">
         <f>I13/(I13+I12)</f>
-        <v>0.94339622641509435</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -579,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C1C62-B191-C947-A10F-EF80A7793163}">
-  <dimension ref="G11:J17"/>
+  <dimension ref="D11:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +608,7 @@
         <v>106</v>
       </c>
       <c r="I12" s="4">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.2">
@@ -620,7 +619,8 @@
         <v>16</v>
       </c>
       <c r="I13" s="4">
-        <v>6</v>
+        <f>58-I12</f>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.2">
@@ -646,13 +646,19 @@
         <v>0.86885245901639341</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="1">
         <f>I13/(I13+I12)</f>
-        <v>0.10344827586206896</v>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f>122-106</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07DF153-0E45-E94D-951B-BE9291224F53}">
-  <dimension ref="D9:F16"/>
+  <dimension ref="D9:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,74 +681,78 @@
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F10" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <f>SUM(E10:E11)</f>
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1">
         <f>SUM(F10:F11)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="G12">
+        <f>SUM(E12:F12)</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="1">
         <f>E10/(E10+E11)</f>
-        <v>0.68907563025210083</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1">
         <f>F11/(F11+F10)</f>
-        <v>0.64634146341463417</v>
+        <v>0.91150442477876104</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
